--- a/Base_IDC_web_actualizado.xlsx
+++ b/Base_IDC_web_actualizado.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\docha\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/70b1300ebc27b91c/Escritorio/R/taller-de-investigacion-2/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E78BA8B8-A2F5-44B2-821B-46A2C89A3FCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
@@ -2052,7 +2052,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0B2AA52-1962-4B0A-BC22-EE02997C4FBE}">
   <dimension ref="A1:B146"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A124" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="96" workbookViewId="0">
       <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
@@ -24671,8 +24671,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC775E43-FD5A-4762-A5E9-BFBCC0363DDE}">
   <dimension ref="A1:EO67"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
-      <selection activeCell="A68" sqref="A68:XFD100"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="EG1" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
+      <selection activeCell="EO1" sqref="EO1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -83102,18 +83102,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -83314,18 +83314,18 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{53F9275B-EF90-4B4B-86A1-E0BF344428B2}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F7834512-2A10-4A30-87E7-F16371563E36}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F7834512-2A10-4A30-87E7-F16371563E36}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{53F9275B-EF90-4B4B-86A1-E0BF344428B2}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Base_IDC_web_actualizado.xlsx
+++ b/Base_IDC_web_actualizado.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/70b1300ebc27b91c/Escritorio/R/taller-de-investigacion-2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E78BA8B8-A2F5-44B2-821B-46A2C89A3FCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{E78BA8B8-A2F5-44B2-821B-46A2C89A3FCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{48570331-FAE3-4037-8154-6F79C0025723}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="2" xr2:uid="{5758835A-A8C8-4BDE-B0A2-4B15BD947E59}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1008" uniqueCount="330">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1006" uniqueCount="330">
   <si>
     <t>FACTOR 1</t>
   </si>
@@ -24671,8 +24671,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC775E43-FD5A-4762-A5E9-BFBCC0363DDE}">
   <dimension ref="A1:EO67"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="EG1" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
-      <selection activeCell="EO1" sqref="EO1"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="O1" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
+      <selection activeCell="AC1" sqref="AC1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26951,9 +26951,7 @@
       <c r="AB6" s="71">
         <v>9.7124906044078969</v>
       </c>
-      <c r="AC6" s="71" t="s">
-        <v>312</v>
-      </c>
+      <c r="AC6" s="71"/>
       <c r="AD6" s="71" t="s">
         <v>312</v>
       </c>
@@ -31758,9 +31756,7 @@
       <c r="AB17" s="71">
         <v>1.7192908444523634</v>
       </c>
-      <c r="AC17" s="71" t="s">
-        <v>312</v>
-      </c>
+      <c r="AC17" s="71"/>
       <c r="AD17" s="71" t="s">
         <v>312</v>
       </c>
@@ -83102,18 +83098,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -83314,18 +83310,18 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F7834512-2A10-4A30-87E7-F16371563E36}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{53F9275B-EF90-4B4B-86A1-E0BF344428B2}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{53F9275B-EF90-4B4B-86A1-E0BF344428B2}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F7834512-2A10-4A30-87E7-F16371563E36}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
